--- a/items.xlsx
+++ b/items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROYECTOS\PROYECTO SUPERVISIÓN ATAJADOS TOTORA\11. PROGRAMAS\seguimientoatajados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROYECTOS\PROYECTO SUPERVISIÓN ATAJADOS TOTORA\11. PROGRAMAS\seguimientopro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF4FB64-5413-4449-8EF9-3E172DD2E5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43B7364-1EE4-4306-BCF0-6DD5F1EF462F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5A40B5CB-DE04-461F-92D7-2CBCF289CF78}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{5A40B5CB-DE04-461F-92D7-2CBCF289CF78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,25 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
-  <si>
-    <t>Nº</t>
-  </si>
-  <si>
-    <t>DESCRIPCIÓN</t>
-  </si>
-  <si>
-    <t>UNIDAD</t>
-  </si>
-  <si>
-    <t>CANT.</t>
-  </si>
-  <si>
-    <t>P.U.</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Letrero de Obra</t>
   </si>
@@ -124,6 +106,21 @@
   </si>
   <si>
     <t>Hr</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>PrecioUnitario</t>
   </si>
 </sst>
 </file>
@@ -554,47 +551,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184DA768-A217-413C-A2C1-E1D94994EAF4}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -602,20 +595,16 @@
       <c r="E2" s="5">
         <v>1068.5</v>
       </c>
-      <c r="F2" s="5">
-        <f t="shared" ref="F2:F10" si="0">E2*D2</f>
-        <v>1068.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -623,20 +612,16 @@
       <c r="E3" s="5">
         <v>790</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" si="0"/>
-        <v>790</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4">
         <v>960</v>
@@ -644,20 +629,16 @@
       <c r="E4" s="5">
         <v>21</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>20160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4">
         <v>556</v>
@@ -665,20 +646,16 @@
       <c r="E5" s="5">
         <v>945.94</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>525942.64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4">
         <v>155</v>
@@ -686,20 +663,16 @@
       <c r="E6" s="5">
         <v>65.3</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>10121.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4">
         <v>5</v>
@@ -707,20 +680,16 @@
       <c r="E7" s="5">
         <v>770.17</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>3850.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4">
         <v>100</v>
@@ -728,20 +697,16 @@
       <c r="E8" s="5">
         <v>833.8</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>83380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
         <v>100</v>
@@ -749,20 +714,16 @@
       <c r="E9" s="5">
         <v>540</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4">
         <v>100</v>
@@ -770,20 +731,16 @@
       <c r="E10" s="5">
         <v>759.5</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>75950</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4">
         <f>100*35</f>
@@ -792,12 +749,9 @@
       <c r="E11" s="5">
         <v>420</v>
       </c>
-      <c r="F11" s="5">
-        <f>E11*D11</f>
-        <v>1470000</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>